--- a/Projeto/charles/SDP_data.xlsx
+++ b/Projeto/charles/SDP_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mafalda\Documents\GitHub\CIFO_comCarinho\Projeto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/afonsoreyna/Documents/GitHub/CIFO_comCarinho/Projeto/charles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4922C6F4-794E-48DB-B495-727D63E8CA53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AF252F2-FFBF-A640-8B1B-450DDA81C53F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9C99DE6E-74DD-4AAC-9C22-E2419DE86591}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{9C99DE6E-74DD-4AAC-9C22-E2419DE86591}"/>
   </bookViews>
   <sheets>
     <sheet name="Commodities list (2)" sheetId="2" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="99">
   <si>
     <t>Commodity</t>
   </si>
@@ -342,6 +342,9 @@
   </si>
   <si>
     <t>price</t>
+  </si>
+  <si>
+    <t>Group</t>
   </si>
 </sst>
 </file>
@@ -383,13 +386,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,8 +422,8 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{B86E3189-4213-461D-B8D6-7B07932922DA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="15">
-    <queryTableFields count="13">
+  <queryTableRefresh nextId="16" unboundColumnsRight="1">
+    <queryTableFields count="14">
       <queryTableField id="1" name="Commodity" tableColumnId="1"/>
       <queryTableField id="2" name="Unit" tableColumnId="2"/>
       <queryTableField id="3" name="1939 price (cents)" tableColumnId="3"/>
@@ -435,15 +437,16 @@
       <queryTableField id="10" name="Riboflavin (mg)" tableColumnId="10"/>
       <queryTableField id="11" name="Niacin (mg)" tableColumnId="11"/>
       <queryTableField id="12" name="Ascorbic Acid (mg)" tableColumnId="12"/>
+      <queryTableField id="15" dataBound="0" tableColumnId="14"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{958B719F-0071-487B-BBF5-337FB6571E55}" name="Table_Commodities_list__2" displayName="Table_Commodities_list__2" ref="A1:M78" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:M78" xr:uid="{958B719F-0071-487B-BBF5-337FB6571E55}"/>
-  <tableColumns count="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{958B719F-0071-487B-BBF5-337FB6571E55}" name="Table_Commodities_list__2" displayName="Table_Commodities_list__2" ref="A1:N78" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:N78" xr:uid="{958B719F-0071-487B-BBF5-337FB6571E55}"/>
+  <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{A4D71195-4A7B-407A-9E44-C1563B9505DC}" uniqueName="1" name="Commodity" queryTableFieldId="1" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{48176341-4921-4191-9AB9-4731498D83A6}" uniqueName="2" name="quantity" queryTableFieldId="2" dataDxfId="1"/>
     <tableColumn id="3" xr3:uid="{0731F310-C832-461B-B0FE-92E5621D5AA4}" uniqueName="3" name="unit" queryTableFieldId="3"/>
@@ -457,6 +460,7 @@
     <tableColumn id="10" xr3:uid="{54F21479-55A1-473E-B509-ACD7B624DE3A}" uniqueName="10" name="Vitamin B2" queryTableFieldId="10"/>
     <tableColumn id="11" xr3:uid="{F224EFC4-6242-4B24-8423-AA59F29F1EC9}" uniqueName="11" name="Niacin" queryTableFieldId="11"/>
     <tableColumn id="12" xr3:uid="{24A69F3F-4B64-4FC6-99B4-DB587B4CA00A}" uniqueName="12" name="Vitamin C" queryTableFieldId="12"/>
+    <tableColumn id="14" xr3:uid="{BDC209C7-35AE-D04D-8648-64BCFC486A46}" uniqueName="14" name="Group" queryTableFieldId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -759,30 +763,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDBE7112-8F74-4367-8E6C-AE753425B506}">
-  <dimension ref="A1:M78"/>
+  <dimension ref="A1:N78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="E80" sqref="E80"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="N79" sqref="N79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.88671875" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.83203125" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -822,8 +827,11 @@
       <c r="M1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -833,7 +841,7 @@
       <c r="C2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2">
         <v>36</v>
       </c>
       <c r="E2">
@@ -863,8 +871,11 @@
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -874,7 +885,7 @@
       <c r="C3" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3">
         <v>14.1</v>
       </c>
       <c r="E3">
@@ -904,8 +915,11 @@
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -915,7 +929,7 @@
       <c r="C4" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4">
         <v>24.2</v>
       </c>
       <c r="E4">
@@ -945,8 +959,11 @@
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -956,7 +973,7 @@
       <c r="C5" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5">
         <v>7.1</v>
       </c>
       <c r="E5">
@@ -986,8 +1003,11 @@
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -997,7 +1017,7 @@
       <c r="C6" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6">
         <v>4.5999999999999996</v>
       </c>
       <c r="E6">
@@ -1027,8 +1047,11 @@
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1038,7 +1061,7 @@
       <c r="C7" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7">
         <v>8.5</v>
       </c>
       <c r="E7">
@@ -1068,8 +1091,11 @@
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1079,7 +1105,7 @@
       <c r="C8" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8">
         <v>7.5</v>
       </c>
       <c r="E8">
@@ -1109,8 +1135,11 @@
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1120,7 +1149,7 @@
       <c r="C9" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9">
         <v>7.1</v>
       </c>
       <c r="E9">
@@ -1150,8 +1179,11 @@
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1161,7 +1193,7 @@
       <c r="C10" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10">
         <v>7.9</v>
       </c>
       <c r="E10">
@@ -1191,8 +1223,11 @@
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1202,7 +1237,7 @@
       <c r="C11" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11">
         <v>9.1</v>
       </c>
       <c r="E11">
@@ -1232,8 +1267,11 @@
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1243,7 +1281,7 @@
       <c r="C12" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12">
         <v>9.1</v>
       </c>
       <c r="E12">
@@ -1273,8 +1311,11 @@
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1284,7 +1325,7 @@
       <c r="C13" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13">
         <v>24.8</v>
       </c>
       <c r="E13">
@@ -1314,8 +1355,11 @@
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1325,7 +1369,7 @@
       <c r="C14" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14">
         <v>15.1</v>
       </c>
       <c r="E14">
@@ -1355,8 +1399,11 @@
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1366,7 +1413,7 @@
       <c r="C15" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15">
         <v>11</v>
       </c>
       <c r="E15">
@@ -1396,8 +1443,11 @@
       <c r="M15">
         <v>177</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1407,7 +1457,7 @@
       <c r="C16" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16">
         <v>6.7</v>
       </c>
       <c r="E16">
@@ -1437,8 +1487,11 @@
       <c r="M16">
         <v>60</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1448,7 +1501,7 @@
       <c r="C17" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17">
         <v>30.8</v>
       </c>
       <c r="E17">
@@ -1478,8 +1531,11 @@
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1489,7 +1545,7 @@
       <c r="C18" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18">
         <v>16.100000000000001</v>
       </c>
       <c r="E18">
@@ -1519,8 +1575,11 @@
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1530,7 +1589,7 @@
       <c r="C19" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19">
         <v>32.6</v>
       </c>
       <c r="E19">
@@ -1560,8 +1619,11 @@
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1571,7 +1633,7 @@
       <c r="C20" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20">
         <v>24.2</v>
       </c>
       <c r="E20">
@@ -1601,8 +1663,11 @@
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1612,7 +1677,7 @@
       <c r="C21" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21">
         <v>14.1</v>
       </c>
       <c r="E21">
@@ -1642,8 +1707,11 @@
       <c r="M21">
         <v>17</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1653,7 +1721,7 @@
       <c r="C22" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22">
         <v>17.899999999999999</v>
       </c>
       <c r="E22">
@@ -1683,8 +1751,11 @@
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1694,7 +1765,7 @@
       <c r="C23" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23">
         <v>16.7</v>
       </c>
       <c r="E23">
@@ -1724,8 +1795,11 @@
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -1735,7 +1809,7 @@
       <c r="C24" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24">
         <v>20.3</v>
       </c>
       <c r="E24">
@@ -1765,8 +1839,11 @@
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1776,7 +1853,7 @@
       <c r="C25" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25">
         <v>9.8000000000000007</v>
       </c>
       <c r="E25">
@@ -1806,8 +1883,11 @@
       <c r="M25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -1817,7 +1897,7 @@
       <c r="C26" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26">
         <v>39.6</v>
       </c>
       <c r="E26">
@@ -1847,8 +1927,11 @@
       <c r="M26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -1858,7 +1941,7 @@
       <c r="C27" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27">
         <v>36.4</v>
       </c>
       <c r="E27">
@@ -1888,8 +1971,11 @@
       <c r="M27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1899,7 +1985,7 @@
       <c r="C28" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28">
         <v>29.2</v>
       </c>
       <c r="E28">
@@ -1929,8 +2015,11 @@
       <c r="M28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -1940,7 +2029,7 @@
       <c r="C29" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29">
         <v>22.6</v>
       </c>
       <c r="E29">
@@ -1970,8 +2059,11 @@
       <c r="M29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -1981,7 +2073,7 @@
       <c r="C30" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30">
         <v>14.6</v>
       </c>
       <c r="E30">
@@ -2011,8 +2103,11 @@
       <c r="M30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -2022,7 +2117,7 @@
       <c r="C31" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31">
         <v>26.8</v>
       </c>
       <c r="E31">
@@ -2052,8 +2147,11 @@
       <c r="M31">
         <v>525</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -2063,7 +2161,7 @@
       <c r="C32" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32">
         <v>27.6</v>
       </c>
       <c r="E32">
@@ -2093,8 +2191,11 @@
       <c r="M32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -2104,7 +2205,7 @@
       <c r="C33" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33">
         <v>36.6</v>
       </c>
       <c r="E33">
@@ -2134,8 +2235,11 @@
       <c r="M33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -2145,7 +2249,7 @@
       <c r="C34" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34">
         <v>30.7</v>
       </c>
       <c r="E34">
@@ -2175,8 +2279,11 @@
       <c r="M34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -2186,7 +2293,7 @@
       <c r="C35" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35">
         <v>24.2</v>
       </c>
       <c r="E35">
@@ -2216,8 +2323,11 @@
       <c r="M35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -2227,7 +2337,7 @@
       <c r="C36" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36">
         <v>25.6</v>
       </c>
       <c r="E36">
@@ -2257,8 +2367,11 @@
       <c r="M36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -2268,7 +2381,7 @@
       <c r="C37" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37">
         <v>27.4</v>
       </c>
       <c r="E37">
@@ -2298,8 +2411,11 @@
       <c r="M37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -2309,7 +2425,7 @@
       <c r="C38" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38">
         <v>16</v>
       </c>
       <c r="E38">
@@ -2339,8 +2455,11 @@
       <c r="M38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -2350,7 +2469,7 @@
       <c r="C39" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39">
         <v>30.3</v>
       </c>
       <c r="E39">
@@ -2380,8 +2499,11 @@
       <c r="M39">
         <v>46</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -2391,7 +2513,7 @@
       <c r="C40" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40">
         <v>42.3</v>
       </c>
       <c r="E40">
@@ -2421,8 +2543,11 @@
       <c r="M40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -2432,7 +2557,7 @@
       <c r="C41" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41">
         <v>13</v>
       </c>
       <c r="E41">
@@ -2462,8 +2587,11 @@
       <c r="M41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -2473,7 +2601,7 @@
       <c r="C42" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42">
         <v>4.4000000000000004</v>
       </c>
       <c r="E42">
@@ -2503,8 +2631,11 @@
       <c r="M42">
         <v>544</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -2514,7 +2645,7 @@
       <c r="C43" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43">
         <v>6.1</v>
       </c>
       <c r="E43">
@@ -2544,8 +2675,11 @@
       <c r="M43">
         <v>498</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -2555,7 +2689,7 @@
       <c r="C44" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44">
         <v>26</v>
       </c>
       <c r="E44">
@@ -2585,8 +2719,11 @@
       <c r="M44">
         <v>952</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -2596,7 +2733,7 @@
       <c r="C45" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45">
         <v>30.9</v>
       </c>
       <c r="E45">
@@ -2626,8 +2763,11 @@
       <c r="M45">
         <v>1998</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -2637,7 +2777,7 @@
       <c r="C46" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46">
         <v>7.1</v>
       </c>
       <c r="E46">
@@ -2667,8 +2807,11 @@
       <c r="M46">
         <v>862</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -2678,7 +2821,7 @@
       <c r="C47" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47">
         <v>3.7</v>
       </c>
       <c r="E47">
@@ -2708,8 +2851,11 @@
       <c r="M47">
         <v>5369</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -2719,7 +2865,7 @@
       <c r="C48" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48">
         <v>4.7</v>
       </c>
       <c r="E48">
@@ -2749,8 +2895,11 @@
       <c r="M48">
         <v>608</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -2760,7 +2909,7 @@
       <c r="C49" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49">
         <v>7.3</v>
       </c>
       <c r="E49">
@@ -2790,8 +2939,11 @@
       <c r="M49">
         <v>313</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -2801,7 +2953,7 @@
       <c r="C50" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D50">
         <v>8.1999999999999993</v>
       </c>
       <c r="E50">
@@ -2831,8 +2983,11 @@
       <c r="M50">
         <v>449</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -2842,7 +2997,7 @@
       <c r="C51" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D51">
         <v>3.6</v>
       </c>
       <c r="E51">
@@ -2872,8 +3027,11 @@
       <c r="M51">
         <v>1184</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -2883,7 +3041,7 @@
       <c r="C52" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52">
         <v>34</v>
       </c>
       <c r="E52">
@@ -2913,8 +3071,11 @@
       <c r="M52">
         <v>2522</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -2924,7 +3085,7 @@
       <c r="C53" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D53" s="3">
+      <c r="D53">
         <v>8.1</v>
       </c>
       <c r="E53">
@@ -2954,8 +3115,11 @@
       <c r="M53">
         <v>2755</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -2965,7 +3129,7 @@
       <c r="C54" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D54">
         <v>5.0999999999999996</v>
       </c>
       <c r="E54">
@@ -2995,15 +3159,18 @@
       <c r="M54">
         <v>1912</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>54</v>
       </c>
       <c r="B55" s="2">
         <v>2.5</v>
       </c>
-      <c r="D55" s="3">
+      <c r="D55">
         <v>16.8</v>
       </c>
       <c r="E55">
@@ -3033,15 +3200,18 @@
       <c r="M55">
         <v>196</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>55</v>
       </c>
       <c r="B56" s="2">
         <v>2.5</v>
       </c>
-      <c r="D56" s="3">
+      <c r="D56">
         <v>20.399999999999999</v>
       </c>
       <c r="E56">
@@ -3071,15 +3241,18 @@
       <c r="M56">
         <v>81</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>56</v>
       </c>
       <c r="B57" s="2">
         <v>2.5</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57">
         <v>21.3</v>
       </c>
       <c r="E57">
@@ -3109,15 +3282,18 @@
       <c r="M57">
         <v>399</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>57</v>
       </c>
       <c r="B58" s="2">
         <v>2</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58">
         <v>27.7</v>
       </c>
       <c r="E58">
@@ -3147,15 +3323,18 @@
       <c r="M58">
         <v>272</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>58</v>
       </c>
       <c r="B59" s="2">
         <v>2</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59">
         <v>10</v>
       </c>
       <c r="E59">
@@ -3185,8 +3364,11 @@
       <c r="M59">
         <v>431</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -3196,7 +3378,7 @@
       <c r="C60" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60">
         <v>7.1</v>
       </c>
       <c r="E60">
@@ -3226,15 +3408,18 @@
       <c r="M60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>60</v>
       </c>
       <c r="B61" s="2">
         <v>2</v>
       </c>
-      <c r="D61" s="3">
+      <c r="D61">
         <v>10.4</v>
       </c>
       <c r="E61">
@@ -3264,15 +3449,18 @@
       <c r="M61">
         <v>218</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>61</v>
       </c>
       <c r="B62" s="2">
         <v>2</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D62">
         <v>13.8</v>
       </c>
       <c r="E62">
@@ -3302,15 +3490,18 @@
       <c r="M62">
         <v>370</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>62</v>
       </c>
       <c r="B63" s="2">
         <v>2</v>
       </c>
-      <c r="D63" s="3">
+      <c r="D63">
         <v>8.6</v>
       </c>
       <c r="E63">
@@ -3340,8 +3531,11 @@
       <c r="M63">
         <v>1253</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -3351,7 +3545,7 @@
       <c r="C64" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D64" s="3">
+      <c r="D64">
         <v>7.6</v>
       </c>
       <c r="E64">
@@ -3381,8 +3575,11 @@
       <c r="M64">
         <v>862</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -3392,7 +3589,7 @@
       <c r="C65" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D65" s="3">
+      <c r="D65">
         <v>15.7</v>
       </c>
       <c r="E65">
@@ -3422,8 +3619,11 @@
       <c r="M65">
         <v>57</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -3433,7 +3633,7 @@
       <c r="C66" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66">
         <v>9</v>
       </c>
       <c r="E66">
@@ -3463,8 +3663,11 @@
       <c r="M66">
         <v>257</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -3474,7 +3677,7 @@
       <c r="C67" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D67" s="3">
+      <c r="D67">
         <v>9.4</v>
       </c>
       <c r="E67">
@@ -3504,8 +3707,11 @@
       <c r="M67">
         <v>136</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -3515,7 +3721,7 @@
       <c r="C68" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D68" s="3">
+      <c r="D68">
         <v>7.9</v>
       </c>
       <c r="E68">
@@ -3545,8 +3751,11 @@
       <c r="M68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -3556,7 +3765,7 @@
       <c r="C69" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D69" s="3">
+      <c r="D69">
         <v>8.9</v>
       </c>
       <c r="E69">
@@ -3586,8 +3795,11 @@
       <c r="M69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -3597,7 +3809,7 @@
       <c r="C70" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D70" s="3">
+      <c r="D70">
         <v>5.9</v>
       </c>
       <c r="E70">
@@ -3627,8 +3839,11 @@
       <c r="M70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -3638,7 +3853,7 @@
       <c r="C71" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D71" s="3">
+      <c r="D71">
         <v>22.4</v>
       </c>
       <c r="E71">
@@ -3668,8 +3883,11 @@
       <c r="M71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N71">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -3679,7 +3897,7 @@
       <c r="C72" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72">
         <v>17.399999999999999</v>
       </c>
       <c r="E72">
@@ -3709,8 +3927,11 @@
       <c r="M72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -3720,7 +3941,7 @@
       <c r="C73" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D73" s="3">
+      <c r="D73">
         <v>8.6</v>
       </c>
       <c r="E73">
@@ -3750,8 +3971,11 @@
       <c r="M73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -3761,7 +3985,7 @@
       <c r="C74" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D74" s="3">
+      <c r="D74">
         <v>16.2</v>
       </c>
       <c r="E74">
@@ -3791,8 +4015,11 @@
       <c r="M74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -3802,7 +4029,7 @@
       <c r="C75" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D75" s="3">
+      <c r="D75">
         <v>51.7</v>
       </c>
       <c r="E75">
@@ -3832,8 +4059,11 @@
       <c r="M75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -3843,7 +4073,7 @@
       <c r="C76" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76">
         <v>13.7</v>
       </c>
       <c r="E76">
@@ -3873,8 +4103,11 @@
       <c r="M76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N76">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -3884,7 +4117,7 @@
       <c r="C77" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D77" s="3">
+      <c r="D77">
         <v>13.6</v>
       </c>
       <c r="E77">
@@ -3914,8 +4147,11 @@
       <c r="M77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N77">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -3925,7 +4161,7 @@
       <c r="C78" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D78" s="3">
+      <c r="D78">
         <v>20.5</v>
       </c>
       <c r="E78">
@@ -3954,6 +4190,9 @@
       </c>
       <c r="M78">
         <v>0</v>
+      </c>
+      <c r="N78">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -3974,7 +4213,7 @@
       <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
